--- a/Glosas de interes y preguntas (1).xlsx
+++ b/Glosas de interes y preguntas (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="4755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="4755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Glosas" sheetId="1" r:id="rId1"/>
@@ -5225,7 +5225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -6015,8 +6015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6456,10 +6456,10 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="23">
+      <c r="A27" s="29">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>835</v>
       </c>
       <c r="C27" t="s">
@@ -6473,10 +6473,10 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="23">
+      <c r="A28" s="29">
         <v>2</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>835</v>
       </c>
       <c r="C28" t="s">
@@ -6487,10 +6487,10 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="23">
+      <c r="A29" s="29">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>835</v>
       </c>
       <c r="C29" t="s">
@@ -6501,10 +6501,10 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="23">
+      <c r="A30" s="29">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>835</v>
       </c>
       <c r="C30" t="s">
@@ -6604,21 +6604,24 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="29" t="s">
         <v>921</v>
       </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="22">
+      <c r="A43" s="29">
         <v>1</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>936</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -6626,16 +6629,16 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="23">
+      <c r="A44" s="29">
         <v>2</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>936</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -6690,7 +6693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
